--- a/CTNNB1-variants-prioritized-dm-columns.xlsx
+++ b/CTNNB1-variants-prioritized-dm-columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B909A9-1364-4B47-A580-4677611061F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04061B6-7448-EF4D-B9AE-D8514B9783D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="500" windowWidth="38640" windowHeight="26460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variants" sheetId="1" r:id="rId1"/>
@@ -1501,7 +1501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1653,6 +1653,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2038,7 +2046,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2052,6 +2060,8 @@
     <xf numFmtId="11" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2097,55 +2107,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2482,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH11" activeCellId="2" sqref="AH13 AH10 AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2720,7 +2682,7 @@
       <c r="AE2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="13">
         <v>1</v>
       </c>
       <c r="AI2" s="2" t="s">
@@ -2821,7 +2783,7 @@
       <c r="AE3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="13">
         <v>1</v>
       </c>
       <c r="AI3" s="2" t="s">
@@ -3427,7 +3389,7 @@
       <c r="AE9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AH9" s="13">
         <v>1</v>
       </c>
       <c r="AI9" s="2" t="s">
@@ -3528,7 +3490,7 @@
       <c r="AE10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH10" s="14">
         <v>1</v>
       </c>
       <c r="AI10" s="4" t="s">
@@ -3629,7 +3591,7 @@
       <c r="AE11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH11" s="14">
         <v>1</v>
       </c>
       <c r="AI11" s="4" t="s">
@@ -3831,7 +3793,7 @@
       <c r="AE13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH13" s="14">
         <v>1</v>
       </c>
       <c r="AI13" s="4" t="s">
@@ -7092,9 +7054,9 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR47">
-    <sortCondition sortBy="cellColor" ref="A2:A47" dxfId="5"/>
-    <sortCondition sortBy="cellColor" ref="A2:A47" dxfId="4"/>
-    <sortCondition sortBy="cellColor" ref="A2:A47" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="A2:A47" dxfId="2"/>
+    <sortCondition sortBy="cellColor" ref="A2:A47" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A47" dxfId="0"/>
     <sortCondition ref="AE2:AE47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
